--- a/Gustavo vulcani.xlsx
+++ b/Gustavo vulcani.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\conexão quebrada\asa\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Willyan R. dos Santos\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C148" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="139" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F139" s="1">
-        <v>45042</v>
+        <v>45377</v>
       </c>
       <c r="G139" s="2">
         <v>0.39583333333333331</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="140" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F140" s="1">
-        <v>45042</v>
+        <v>45377</v>
       </c>
       <c r="G140" s="2">
         <v>0.39583333333333331</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="141" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F141" s="1">
-        <v>45042</v>
+        <v>45377</v>
       </c>
       <c r="G141" s="2">
         <v>0.64583333333333337</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="142" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F142" s="1">
-        <v>45042</v>
+        <v>45377</v>
       </c>
       <c r="G142" s="2">
         <v>0.70833333333333337</v>
